--- a/data/input/absenteeism_data_12.xlsx
+++ b/data/input/absenteeism_data_12.xlsx
@@ -476,277 +476,277 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34731</v>
+        <v>82217</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Davi Lucca Teixeira</t>
+          <t>Sabrina Souza</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45091</v>
+        <v>45079</v>
       </c>
       <c r="G2" t="n">
-        <v>10432.01</v>
+        <v>11664.98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>45294</v>
+        <v>9007</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sr. Bernardo Ribeiro</t>
+          <t>Milena Nascimento</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45088</v>
+        <v>45096</v>
       </c>
       <c r="G3" t="n">
-        <v>4984.45</v>
+        <v>5161.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>23178</v>
+        <v>13266</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clara Caldeira</t>
+          <t>Ana Lívia Santos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45093</v>
+        <v>45101</v>
       </c>
       <c r="G4" t="n">
-        <v>3727.59</v>
+        <v>6065.67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>27540</v>
+        <v>81426</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alexandre Lima</t>
+          <t>Fernanda Cardoso</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45104</v>
+        <v>45102</v>
       </c>
       <c r="G5" t="n">
-        <v>12416.77</v>
+        <v>5703.76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>54913</v>
+        <v>39744</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. Augusto Pinto</t>
+          <t>Luana Mendes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45095</v>
+        <v>45092</v>
       </c>
       <c r="G6" t="n">
-        <v>2814.13</v>
+        <v>8795.42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>61675</v>
+        <v>92288</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sr. Ian Campos</t>
+          <t>Dr. Pedro Henrique Almeida</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45078</v>
+        <v>45101</v>
       </c>
       <c r="G7" t="n">
-        <v>6250.6</v>
+        <v>7637.57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4464</v>
+        <v>49580</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maysa Novaes</t>
+          <t>André Silva</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45083</v>
+        <v>45104</v>
       </c>
       <c r="G8" t="n">
-        <v>6317.9</v>
+        <v>5461.64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>65978</v>
+        <v>57562</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dr. Eduardo Campos</t>
+          <t>Elisa Lopes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45104</v>
+        <v>45101</v>
       </c>
       <c r="G9" t="n">
-        <v>10177.73</v>
+        <v>3903.44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>64930</v>
+        <v>76650</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pedro Correia</t>
+          <t>Miguel Monteiro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45089</v>
+        <v>45106</v>
       </c>
       <c r="G10" t="n">
-        <v>12220.82</v>
+        <v>11302.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>21449</v>
+        <v>65791</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Eduardo Lopes</t>
+          <t>Rebeca Mendes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45079</v>
+        <v>45097</v>
       </c>
       <c r="G11" t="n">
-        <v>5096.24</v>
+        <v>3459.52</v>
       </c>
     </row>
   </sheetData>
